--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21075" windowHeight="13350"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21072" windowHeight="13356"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>About:</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>solar thermal</t>
+  </si>
+  <si>
+    <t>agriculture</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -717,17 +720,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.5546875" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1253,9 +1256,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1485,7 +1488,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
@@ -2085,13 +2088,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2158,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G8" si="0">$I2</f>
+        <f t="shared" ref="B2:G9" si="0">$I2</f>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="C2">
@@ -2194,7 +2197,7 @@
         <v>2.7850697292863002E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R8" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="K2:R9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
         <v>3.6833470057424114E-2</v>
       </c>
       <c r="L2">
@@ -2259,7 +2262,7 @@
         <v>0.68679245283018864</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="2">$I3</f>
+        <f t="shared" ref="H3:H9" si="2">$I3</f>
         <v>0.68679245283018864</v>
       </c>
       <c r="I3">
@@ -2267,7 +2270,7 @@
         <v>0.68679245283018864</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="3">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="J3:J9" si="3">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
         <v>0.65072190319934364</v>
       </c>
       <c r="K3">
@@ -2617,7 +2620,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -2693,17 +2696,94 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>Data!L15</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>Data!M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21072" windowHeight="13356"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="21075" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>About:</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>agriculture</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
   </si>
 </sst>
 </file>
@@ -620,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -718,19 +730,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="37.5546875" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1256,9 +1270,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1484,13 +1498,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1631,7 +1645,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -2076,6 +2090,183 @@
       <c r="S9">
         <f>Data!M29</f>
         <v>0.19382022471910113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2092,9 +2283,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">

--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>About:</t>
   </si>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +271,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,9 +279,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -302,8 +316,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541152</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1560327</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -728,26 +742,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="6.75" customWidth="1"/>
+    <col min="11" max="11" width="37.625" customWidth="1"/>
+    <col min="20" max="21" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,90 +767,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="1"/>
+      <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="P7" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>2020</v>
       </c>
       <c r="D8" s="1">
         <v>2030</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>2020</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>2030</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="L8" s="1">
         <v>2020</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>2030</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="O8" s="4">
         <v>2020</v>
       </c>
-      <c r="M8" s="4">
+      <c r="P8" s="4">
         <v>2030</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,33 +884,50 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>C9</f>
         <v>27</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <f t="shared" ref="H9:I9" si="0">D9</f>
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="J9">
-        <f>F13</f>
+      <c r="L9">
+        <f>G13</f>
         <v>5</v>
       </c>
-      <c r="K9">
-        <f>G13</f>
+      <c r="M9">
+        <f>H13</f>
         <v>10</v>
       </c>
-      <c r="L9" s="5">
-        <f>J9/SUM(J$9:J$15)</f>
+      <c r="N9">
+        <f>I13</f>
+        <v>15</v>
+      </c>
+      <c r="O9" s="10">
+        <f>L9/SUM(L$9:L$15)</f>
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="M9" s="5">
-        <f>K9/SUM(K$9:K$15)</f>
+      <c r="P9" s="10">
+        <f>M9/SUM(M$9:M$15)</f>
         <v>0.10869565217391304</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q9" s="10">
+        <f>N9/SUM(N$9:N$15)</f>
+        <v>0.18072289156626506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,33 +937,50 @@
       <c r="D10">
         <v>18</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G11" si="1">C10</f>
         <v>155</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <f t="shared" ref="H10:H11" si="2">D10</f>
         <v>18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10">
+        <f t="shared" ref="I10:I11" si="3">E10</f>
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="J10">
-        <f>F9+F10</f>
+      <c r="L10">
+        <f>G9+G10</f>
         <v>182</v>
       </c>
-      <c r="K10">
-        <f>G9+G10</f>
+      <c r="M10">
+        <f>H9+H10</f>
         <v>30</v>
       </c>
-      <c r="L10" s="5">
-        <f t="shared" ref="L10:M15" si="0">J10/SUM(J$9:J$15)</f>
+      <c r="N10">
+        <f>I9+I10</f>
+        <v>17</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" ref="O10:Q15" si="4">L10/SUM(L$9:L$15)</f>
         <v>0.68679245283018864</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
+      <c r="P10" s="10">
+        <f t="shared" si="4"/>
         <v>0.32608695652173914</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q10" s="10">
+        <f t="shared" si="4"/>
+        <v>0.20481927710843373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,33 +990,50 @@
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="7">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="J11">
-        <f>F14</f>
+      <c r="L11">
+        <f>G14</f>
         <v>32</v>
       </c>
-      <c r="K11">
-        <f>G14</f>
+      <c r="M11">
+        <f>H14</f>
         <v>31</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="0"/>
+      <c r="N11">
+        <f>I14</f>
+        <v>35</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
         <v>0.12075471698113208</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
+      <c r="P11" s="10">
+        <f t="shared" si="4"/>
         <v>0.33695652173913043</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q11" s="10">
+        <f t="shared" si="4"/>
+        <v>0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,27 +1043,38 @@
       <c r="D12">
         <v>49</v>
       </c>
-      <c r="I12" t="s">
+      <c r="E12" s="7">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="J12">
-        <f>F11</f>
+      <c r="L12">
+        <f>G11</f>
         <v>46</v>
       </c>
-      <c r="K12">
-        <f>G11</f>
+      <c r="M12">
+        <f>H11</f>
         <v>21</v>
       </c>
-      <c r="L12" s="5">
-        <f t="shared" si="0"/>
+      <c r="N12">
+        <f>I11</f>
+        <v>16</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
         <v>0.17358490566037735</v>
       </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
+      <c r="P12" s="10">
+        <f t="shared" si="4"/>
         <v>0.22826086956521738</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <f t="shared" si="4"/>
+        <v>0.19277108433734941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,31 +1084,47 @@
       <c r="D13">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f>C13</f>
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="5">D13</f>
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13">
+        <f t="shared" ref="I13:I14" si="6">E13</f>
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,31 +1134,47 @@
       <c r="D14">
         <v>31</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="7">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="7">C14</f>
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
         <v>25</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,25 +1184,35 @@
       <c r="D15">
         <v>69</v>
       </c>
-      <c r="I15" t="s">
+      <c r="E15" s="7">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
         <v>26</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,176 +1222,243 @@
       <c r="D16">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="1" t="s">
+      <c r="E16" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="1" t="s">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="N19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="P19" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="1">
+      <c r="Q19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
         <v>2020</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>2030</v>
       </c>
-      <c r="L20" s="4">
+      <c r="N20" s="1">
+        <v>2050</v>
+      </c>
+      <c r="O20" s="4">
         <v>2020</v>
       </c>
-      <c r="M20" s="4">
+      <c r="P20" s="4">
         <v>2030</v>
       </c>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
+      <c r="Q20" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <f>SUM(C12,C15:C16)</f>
         <v>417</v>
       </c>
-      <c r="K21">
-        <f>SUM(D12,D15:D16)</f>
+      <c r="M21">
+        <f t="shared" ref="M21:N21" si="8">SUM(D12,D15:D16)</f>
         <v>356</v>
       </c>
-      <c r="L21" s="7">
-        <f>J21/SUM(J$21:J$22)</f>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="O21" s="6">
+        <f>L21/SUM(L$21:L$22)</f>
         <v>0.6415384615384615</v>
       </c>
-      <c r="M21" s="7">
-        <f>K21/SUM(K$21:K$22)</f>
+      <c r="P21" s="6">
+        <f>M21/SUM(M$21:M$22)</f>
         <v>0.8537170263788969</v>
       </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
+      <c r="Q21" s="6">
+        <f>N21/SUM(N$21:N$22)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>36</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <f>SUM(C9:C11,C13)</f>
         <v>233</v>
       </c>
-      <c r="K22">
-        <f>SUM(D9:D11,D13)</f>
+      <c r="M22">
+        <f t="shared" ref="M22:N22" si="9">SUM(D9:D11,D13)</f>
         <v>61</v>
       </c>
-      <c r="L22" s="7">
-        <f>J22/SUM(J$21:J$22)</f>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="O22" s="6">
+        <f>L22/SUM(L$21:L$22)</f>
         <v>0.35846153846153844</v>
       </c>
-      <c r="M22" s="7">
-        <f>K22/SUM(K$21:K$22)</f>
+      <c r="P22" s="6">
+        <f>M22/SUM(M$21:M$22)</f>
         <v>0.14628297362110312</v>
       </c>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="1" t="s">
+      <c r="Q22" s="6">
+        <f>N22/SUM(N$21:N$22)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="1" t="s">
+    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="N25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="P25" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="1">
+      <c r="Q25" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
         <v>2020</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M26" s="1">
         <v>2030</v>
       </c>
-      <c r="L26" s="4">
+      <c r="N26" s="1">
+        <v>2050</v>
+      </c>
+      <c r="O26" s="4">
         <v>2020</v>
       </c>
-      <c r="M26" s="4">
+      <c r="P26" s="4">
         <v>2030</v>
       </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
+      <c r="Q26" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
         <v>38</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <f>C16</f>
         <v>328</v>
       </c>
-      <c r="K27">
-        <f>D16</f>
+      <c r="M27">
+        <f t="shared" ref="M27:N27" si="10">D16</f>
         <v>238</v>
       </c>
-      <c r="L27" s="7">
-        <f>J27/SUM(J$27:J$29)</f>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+      <c r="O27" s="6">
+        <f>L27/SUM(L$27:L$29)</f>
         <v>0.78657074340527577</v>
       </c>
-      <c r="M27" s="7">
-        <f>K27/SUM(K$27:K$29)</f>
+      <c r="P27" s="6">
+        <f>M27/SUM(M$27:M$29)</f>
         <v>0.6685393258426966</v>
       </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
+      <c r="Q27" s="6">
+        <f>N27/SUM(N$27:N$29)</f>
+        <v>0.4889705882352941</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
         <v>39</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <f>C12</f>
         <v>36</v>
       </c>
-      <c r="K28">
-        <f>D12</f>
+      <c r="M28">
+        <f t="shared" ref="M28:N28" si="11">D12</f>
         <v>49</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" ref="L28:M29" si="1">J28/SUM(J$27:J$29)</f>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" ref="O28:Q29" si="12">L28/SUM(L$27:L$29)</f>
         <v>8.6330935251798566E-2</v>
       </c>
-      <c r="M28" s="7">
-        <f t="shared" si="1"/>
+      <c r="P28" s="6">
+        <f t="shared" si="12"/>
         <v>0.13764044943820225</v>
       </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
+      <c r="Q28" s="6">
+        <f t="shared" si="12"/>
+        <v>0.19852941176470587</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
         <v>40</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <f>C15</f>
         <v>53</v>
       </c>
-      <c r="K29">
-        <f>D15</f>
+      <c r="M29">
+        <f t="shared" ref="M29:N29" si="13">D15</f>
         <v>69</v>
       </c>
-      <c r="L29" s="7">
-        <f t="shared" si="1"/>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="12"/>
         <v>0.12709832134292565</v>
       </c>
-      <c r="M29" s="7">
-        <f t="shared" si="1"/>
+      <c r="P29" s="6">
+        <f t="shared" si="12"/>
         <v>0.19382022471910113</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="12"/>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
@@ -1266,16 +1473,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1333,8 +1540,68 @@
       <c r="S1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1">
+        <v>2031</v>
+      </c>
+      <c r="U1">
+        <v>2032</v>
+      </c>
+      <c r="V1">
+        <v>2033</v>
+      </c>
+      <c r="W1">
+        <v>2034</v>
+      </c>
+      <c r="X1">
+        <v>2035</v>
+      </c>
+      <c r="Y1">
+        <v>2036</v>
+      </c>
+      <c r="Z1">
+        <v>2037</v>
+      </c>
+      <c r="AA1">
+        <v>2038</v>
+      </c>
+      <c r="AB1">
+        <v>2039</v>
+      </c>
+      <c r="AC1">
+        <v>2040</v>
+      </c>
+      <c r="AD1">
+        <v>2041</v>
+      </c>
+      <c r="AE1">
+        <v>2042</v>
+      </c>
+      <c r="AF1">
+        <v>2043</v>
+      </c>
+      <c r="AG1">
+        <v>2044</v>
+      </c>
+      <c r="AH1">
+        <v>2045</v>
+      </c>
+      <c r="AI1">
+        <v>2046</v>
+      </c>
+      <c r="AJ1">
+        <v>2047</v>
+      </c>
+      <c r="AK1">
+        <v>2048</v>
+      </c>
+      <c r="AL1">
+        <v>2049</v>
+      </c>
+      <c r="AM1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1366,8 +1633,8 @@
         <f>$I2</f>
         <v>0.6415384615384615</v>
       </c>
-      <c r="I2">
-        <f>Data!L21</f>
+      <c r="I2" s="11">
+        <f>Data!O21</f>
         <v>0.6415384615384615</v>
       </c>
       <c r="J2">
@@ -1406,12 +1673,92 @@
         <f t="shared" si="1"/>
         <v>0.8324991698948534</v>
       </c>
-      <c r="S2">
-        <f>Data!M21</f>
+      <c r="S2" s="11">
+        <f>Data!P21</f>
         <v>0.8537170263788969</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.85353117505995202</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.85334532374100724</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="2"/>
+        <v>0.85315947242206236</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>0.85297362110311747</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="2"/>
+        <v>0.8527877697841727</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="2"/>
+        <v>0.85260191846522781</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="2"/>
+        <v>0.85241606714628293</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="2"/>
+        <v>0.85223021582733816</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="2"/>
+        <v>0.85204436450839327</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="2"/>
+        <v>0.8518585131894485</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="2"/>
+        <v>0.85167266187050361</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="2"/>
+        <v>0.85148681055155873</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="2"/>
+        <v>0.85130095923261395</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="2"/>
+        <v>0.85111510791366907</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="2"/>
+        <v>0.85092925659472418</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="2"/>
+        <v>0.85074340527577941</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="2"/>
+        <v>0.85055755395683452</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="2"/>
+        <v>0.85037170263788964</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="2"/>
+        <v>0.85018585131894486</v>
+      </c>
+      <c r="AM2" s="11">
+        <f>Data!Q21</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1443,8 +1790,8 @@
         <f>$I3</f>
         <v>0.35846153846153844</v>
       </c>
-      <c r="I3">
-        <f>Data!L22</f>
+      <c r="I3" s="11">
+        <f>Data!O22</f>
         <v>0.35846153846153844</v>
       </c>
       <c r="J3">
@@ -1483,9 +1830,89 @@
         <f t="shared" si="1"/>
         <v>0.16750083010514666</v>
       </c>
-      <c r="S3">
-        <f>Data!M22</f>
+      <c r="S3" s="11">
+        <f>Data!P22</f>
         <v>0.14628297362110312</v>
+      </c>
+      <c r="T3">
+        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.14646882494004798</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>0.14665467625899281</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="2"/>
+        <v>0.14684052757793764</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>0.1470263788968825</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>0.14721223021582736</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>0.14739808153477219</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>0.14758393285371701</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0.14776978417266187</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>0.14795563549160673</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>0.14814148681055156</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>0.14832733812949639</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="2"/>
+        <v>0.14851318944844125</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>0.1486990407673861</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>0.14888489208633093</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>0.14907074340527576</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>0.14925659472422062</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>0.14944244604316548</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>0.14962829736211031</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="2"/>
+        <v>0.14981414868105514</v>
+      </c>
+      <c r="AM3" s="11">
+        <f>Data!Q22</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -1498,16 +1925,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1565,8 +1992,68 @@
       <c r="S1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1">
+        <v>2031</v>
+      </c>
+      <c r="U1">
+        <v>2032</v>
+      </c>
+      <c r="V1">
+        <v>2033</v>
+      </c>
+      <c r="W1">
+        <v>2034</v>
+      </c>
+      <c r="X1">
+        <v>2035</v>
+      </c>
+      <c r="Y1">
+        <v>2036</v>
+      </c>
+      <c r="Z1">
+        <v>2037</v>
+      </c>
+      <c r="AA1">
+        <v>2038</v>
+      </c>
+      <c r="AB1">
+        <v>2039</v>
+      </c>
+      <c r="AC1">
+        <v>2040</v>
+      </c>
+      <c r="AD1">
+        <v>2041</v>
+      </c>
+      <c r="AE1">
+        <v>2042</v>
+      </c>
+      <c r="AF1">
+        <v>2043</v>
+      </c>
+      <c r="AG1">
+        <v>2044</v>
+      </c>
+      <c r="AH1">
+        <v>2045</v>
+      </c>
+      <c r="AI1">
+        <v>2046</v>
+      </c>
+      <c r="AJ1">
+        <v>2047</v>
+      </c>
+      <c r="AK1">
+        <v>2048</v>
+      </c>
+      <c r="AL1">
+        <v>2049</v>
+      </c>
+      <c r="AM1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +2086,7 @@
         <v>0.78657074340527577</v>
       </c>
       <c r="I2">
-        <f>Data!L27</f>
+        <f>Data!O27</f>
         <v>0.78657074340527577</v>
       </c>
       <c r="J2">
@@ -1607,7 +2094,7 @@
         <v>0.77476760164901781</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="K2:T3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
         <v>0.76296445989275996</v>
       </c>
       <c r="L2">
@@ -1639,11 +2126,91 @@
         <v>0.68034246759895456</v>
       </c>
       <c r="S2">
-        <f>Data!M27</f>
+        <f>Data!P27</f>
         <v>0.6685393258426966</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.65956088896232645</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.65058245208195631</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="2"/>
+        <v>0.64160401520158628</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>0.63262557832121613</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="2"/>
+        <v>0.62364714144084599</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="2"/>
+        <v>0.61466870456047584</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="2"/>
+        <v>0.6056902676801057</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="2"/>
+        <v>0.59671183079973555</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="2"/>
+        <v>0.58773339391936541</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="2"/>
+        <v>0.57875495703899538</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="2"/>
+        <v>0.56977652015862523</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="2"/>
+        <v>0.56079808327825509</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="2"/>
+        <v>0.55181964639788494</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="2"/>
+        <v>0.5428412095175148</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="2"/>
+        <v>0.53386277263714477</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="2"/>
+        <v>0.52488433575677462</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="2"/>
+        <v>0.51590589887640448</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="2"/>
+        <v>0.50692746199603433</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="2"/>
+        <v>0.49794902511566419</v>
+      </c>
+      <c r="AM2">
+        <f>Data!Q27</f>
+        <v>0.4889705882352941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1672,15 +2239,15 @@
         <v>8.6330935251798566E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="2">$I3</f>
+        <f t="shared" ref="H3" si="3">$I3</f>
         <v>8.6330935251798566E-2</v>
       </c>
       <c r="I3">
-        <f>Data!L28</f>
+        <f>Data!O28</f>
         <v>8.6330935251798566E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3" si="3">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="J3" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
         <v>9.1461886670438933E-2</v>
       </c>
       <c r="K3">
@@ -1716,11 +2283,91 @@
         <v>0.13250949801956188</v>
       </c>
       <c r="S3">
-        <f>Data!M28</f>
+        <f>Data!P28</f>
         <v>0.13764044943820225</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.14068489755452743</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>0.1437293456708526</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="2"/>
+        <v>0.14677379378717781</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>0.14981824190350299</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>0.15286269001982816</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>0.15590713813615334</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>0.15895158625247852</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0.16199603436880369</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>0.16504048248512887</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>0.16808493060145407</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>0.17112937871777925</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="2"/>
+        <v>0.17417382683410443</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>0.17721827495042961</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>0.18026272306675478</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>0.18330717118307996</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>0.18635161929940514</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>0.18939606741573034</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>0.19244051553205552</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="2"/>
+        <v>0.19548496364838069</v>
+      </c>
+      <c r="AM3">
+        <f>Data!Q28</f>
+        <v>0.19852941176470587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1778,8 +2425,68 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1837,8 +2544,68 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1896,8 +2663,68 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1955,8 +2782,68 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2014,85 +2901,225 @@
       <c r="S8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:H9" si="4">$I9</f>
+        <f t="shared" ref="B9:H9" si="5">$I9</f>
         <v>0.12709832134292565</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="I9">
-        <f>Data!L29</f>
+        <f>Data!O29</f>
         <v>0.12709832134292565</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:R9" si="5">$I9+($S9-$I9)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="J9:R9" si="6">$I9+($S9-$I9)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
         <v>0.13377051168054319</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14044270201816075</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14711489235577829</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15378708269339583</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16045927303101337</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16713146336863094</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17380365370624848</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18047584404386602</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18714803438148359</v>
       </c>
       <c r="S9">
-        <f>Data!M29</f>
+        <f>Data!P29</f>
         <v>0.19382022471910113</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f>$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.19975421348314606</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:AL9" si="7">$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.205688202247191</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>0.21162219101123597</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>0.21755617977528091</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>0.22349016853932585</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="7"/>
+        <v>0.22942415730337079</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>0.23535814606741573</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>0.24129213483146067</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>0.24722612359550561</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="7"/>
+        <v>0.25316011235955055</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>0.25909410112359549</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="7"/>
+        <v>0.26502808988764048</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="7"/>
+        <v>0.27096207865168542</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="7"/>
+        <v>0.27689606741573036</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="7"/>
+        <v>0.2828300561797753</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="7"/>
+        <v>0.28876404494382024</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="7"/>
+        <v>0.29469803370786518</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="7"/>
+        <v>0.30063202247191012</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="7"/>
+        <v>0.30656601123595506</v>
+      </c>
+      <c r="AM9">
+        <f>Data!Q29</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2150,8 +3177,68 @@
       <c r="S10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2209,8 +3296,68 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2266,6 +3413,66 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>0</v>
       </c>
     </row>
@@ -2279,16 +3486,16 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2346,8 +3553,68 @@
       <c r="S1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1">
+        <v>2031</v>
+      </c>
+      <c r="U1">
+        <v>2032</v>
+      </c>
+      <c r="V1">
+        <v>2033</v>
+      </c>
+      <c r="W1">
+        <v>2034</v>
+      </c>
+      <c r="X1">
+        <v>2035</v>
+      </c>
+      <c r="Y1">
+        <v>2036</v>
+      </c>
+      <c r="Z1">
+        <v>2037</v>
+      </c>
+      <c r="AA1">
+        <v>2038</v>
+      </c>
+      <c r="AB1">
+        <v>2039</v>
+      </c>
+      <c r="AC1">
+        <v>2040</v>
+      </c>
+      <c r="AD1">
+        <v>2041</v>
+      </c>
+      <c r="AE1">
+        <v>2042</v>
+      </c>
+      <c r="AF1">
+        <v>2043</v>
+      </c>
+      <c r="AG1">
+        <v>2044</v>
+      </c>
+      <c r="AH1">
+        <v>2045</v>
+      </c>
+      <c r="AI1">
+        <v>2046</v>
+      </c>
+      <c r="AJ1">
+        <v>2047</v>
+      </c>
+      <c r="AK1">
+        <v>2048</v>
+      </c>
+      <c r="AL1">
+        <v>2049</v>
+      </c>
+      <c r="AM1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2380,7 +3647,7 @@
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="I2">
-        <f>Data!L9</f>
+        <f>Data!O9</f>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="J2">
@@ -2388,7 +3655,7 @@
         <v>2.7850697292863002E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="K2:T9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
         <v>3.6833470057424114E-2</v>
       </c>
       <c r="L2">
@@ -2420,11 +3687,91 @@
         <v>9.9712879409351918E-2</v>
       </c>
       <c r="S2">
-        <f>Data!M9</f>
+        <f>Data!P9</f>
         <v>0.10869565217391304</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.11229701414353065</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:AL9" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.11589837611314824</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="2"/>
+        <v>0.11949973808276584</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>0.12310110005238345</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="2"/>
+        <v>0.12670246202200106</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="2"/>
+        <v>0.13030382399161866</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="2"/>
+        <v>0.13390518596123624</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="2"/>
+        <v>0.13750654793085385</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="2"/>
+        <v>0.14110790990047145</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="2"/>
+        <v>0.14470927187008906</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="2"/>
+        <v>0.14831063383970666</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="2"/>
+        <v>0.15191199580932424</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="2"/>
+        <v>0.15551335777894185</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="2"/>
+        <v>0.15911471974855945</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="2"/>
+        <v>0.16271608171817706</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="2"/>
+        <v>0.16631744368779466</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="2"/>
+        <v>0.16991880565741224</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="2"/>
+        <v>0.17352016762702988</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="2"/>
+        <v>0.17712152959664745</v>
+      </c>
+      <c r="AM2">
+        <f>Data!Q9</f>
+        <v>0.18072289156626506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2453,15 +3800,15 @@
         <v>0.68679245283018864</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="2">$I3</f>
+        <f t="shared" ref="H3:H9" si="3">$I3</f>
         <v>0.68679245283018864</v>
       </c>
       <c r="I3">
-        <f>Data!L10</f>
+        <f>Data!O10</f>
         <v>0.68679245283018864</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="3">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="J3:J9" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
         <v>0.65072190319934364</v>
       </c>
       <c r="K3">
@@ -2497,11 +3844,91 @@
         <v>0.36215750615258407</v>
       </c>
       <c r="S3">
-        <f>Data!M10</f>
+        <f>Data!P10</f>
         <v>0.32608695652173914</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <f t="shared" ref="T3:AI9" si="5">$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.32002357255107389</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="5"/>
+        <v>0.31396018858040858</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="5"/>
+        <v>0.30789680460974334</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="5"/>
+        <v>0.30183342063907803</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="5"/>
+        <v>0.29577003666841278</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="5"/>
+        <v>0.28970665269774754</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="5"/>
+        <v>0.28364326872708223</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="5"/>
+        <v>0.27757988475641698</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="5"/>
+        <v>0.27151650078575168</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="5"/>
+        <v>0.26545311681508643</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="5"/>
+        <v>0.25938973284442113</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="5"/>
+        <v>0.25332634887375588</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="5"/>
+        <v>0.24726296490309063</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="5"/>
+        <v>0.24119958093242533</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="5"/>
+        <v>0.23513619696176008</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="5"/>
+        <v>0.2290728129910948</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>0.22300942902042953</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>0.21694604504976428</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="2"/>
+        <v>0.21088266107909898</v>
+      </c>
+      <c r="AM3">
+        <f>Data!Q10</f>
+        <v>0.20481927710843373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2530,15 +3957,15 @@
         <v>0.12075471698113208</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12075471698113208</v>
       </c>
       <c r="I4">
-        <f>Data!L11</f>
+        <f>Data!O11</f>
         <v>0.12075471698113208</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14237489745693191</v>
       </c>
       <c r="K4">
@@ -2574,11 +4001,91 @@
         <v>0.3153363412633306</v>
       </c>
       <c r="S4">
-        <f>Data!M11</f>
+        <f>Data!P11</f>
         <v>0.33695652173913043</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>0.3411930330015715</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.34542954426401257</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>0.34966605552645363</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0.3539025667888947</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0.35813907805133577</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>0.36237558931377684</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>0.3666121005762179</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="2"/>
+        <v>0.37084861183865897</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="2"/>
+        <v>0.37508512310110004</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="2"/>
+        <v>0.37932163436354116</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>0.38355814562598223</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="2"/>
+        <v>0.38779465688842329</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>0.39203116815086436</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="2"/>
+        <v>0.39626767941330543</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="2"/>
+        <v>0.4005041906757465</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="2"/>
+        <v>0.40474070193818756</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="2"/>
+        <v>0.40897721320062863</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="2"/>
+        <v>0.4132137244630697</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="2"/>
+        <v>0.41745023572551077</v>
+      </c>
+      <c r="AM4">
+        <f>Data!Q11</f>
+        <v>0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2607,15 +4114,15 @@
         <v>0.17358490566037735</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17358490566037735</v>
       </c>
       <c r="I5">
-        <f>Data!L12</f>
+        <f>Data!O12</f>
         <v>0.17358490566037735</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17905250205086135</v>
       </c>
       <c r="K5">
@@ -2651,11 +4158,91 @@
         <v>0.22279327317473338</v>
       </c>
       <c r="S5">
-        <f>Data!M12</f>
+        <f>Data!P12</f>
         <v>0.22826086956521738</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>0.22648638030382398</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.22471189104243058</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>0.22293740178103719</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0.22116291251964379</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>0.21938842325825039</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>0.217613933996857</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>0.2158394447354636</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>0.2140649554740702</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>0.2122904662126768</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="2"/>
+        <v>0.21051597695128338</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>0.20874148768988998</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="2"/>
+        <v>0.20696699842849658</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>0.20519250916710319</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="2"/>
+        <v>0.20341801990570979</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>0.20164353064431639</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="2"/>
+        <v>0.199869041382923</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="2"/>
+        <v>0.1980945521215296</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="2"/>
+        <v>0.1963200628601362</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="2"/>
+        <v>0.1945455735987428</v>
+      </c>
+      <c r="AM5">
+        <f>Data!Q12</f>
+        <v>0.19277108433734941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2684,15 +4271,15 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>Data!L13</f>
+        <f>Data!O13</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -2728,11 +4315,91 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <f>Data!M13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Data!P13</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f>Data!Q13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2761,15 +4428,15 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>Data!L14</f>
+        <f>Data!O14</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7">
@@ -2805,11 +4472,91 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <f>Data!M14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Data!P14</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f>Data!Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2838,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>Data!L15</f>
+        <f>Data!O15</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8">
@@ -2882,11 +4629,91 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <f>Data!M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <f>Data!P15</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f>Data!Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2915,15 +4742,15 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>Data!L15</f>
+        <f>Data!O15</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9">
@@ -2959,22 +4786,102 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <f>Data!M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+        <f>Data!P15</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f>Data!Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>About:</t>
   </si>
@@ -158,9 +158,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>CPbE Pecentage of Industry CCS by Industry</t>
   </si>
   <si>
@@ -195,6 +192,30 @@
   </si>
   <si>
     <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>Our source does not specify what share of coal CCS is for lignite and for hard coal.</t>
+  </si>
+  <si>
+    <t>As hard coal is the predominant type in the U.S., and the newer and more technologically</t>
+  </si>
+  <si>
+    <t>advanced coal plants (suitable for CCS) in the U.S. are likely to burn hard coal rather</t>
+  </si>
+  <si>
+    <t>than lignite, we assume all coal CCS refers to hard coal rather than lignite.</t>
   </si>
 </sst>
 </file>
@@ -642,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,17 +671,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,12 +744,32 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -748,15 +789,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="37.625" customWidth="1"/>
-    <col min="20" max="21" width="9.125" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1288,15 +1329,15 @@
         <v>272</v>
       </c>
       <c r="O21" s="6">
-        <f>L21/SUM(L$21:L$22)</f>
+        <f t="shared" ref="O21:Q22" si="9">L21/SUM(L$21:L$22)</f>
         <v>0.6415384615384615</v>
       </c>
       <c r="P21" s="6">
-        <f>M21/SUM(M$21:M$22)</f>
+        <f t="shared" si="9"/>
         <v>0.8537170263788969</v>
       </c>
       <c r="Q21" s="6">
-        <f>N21/SUM(N$21:N$22)</f>
+        <f t="shared" si="9"/>
         <v>0.85</v>
       </c>
     </row>
@@ -1309,23 +1350,23 @@
         <v>233</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:N22" si="9">SUM(D9:D11,D13)</f>
+        <f t="shared" ref="M22:N22" si="10">SUM(D9:D11,D13)</f>
         <v>61</v>
       </c>
       <c r="N22">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="O22" s="6">
         <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="O22" s="6">
-        <f>L22/SUM(L$21:L$22)</f>
         <v>0.35846153846153844</v>
       </c>
       <c r="P22" s="6">
-        <f>M22/SUM(M$21:M$22)</f>
+        <f t="shared" si="9"/>
         <v>0.14628297362110312</v>
       </c>
       <c r="Q22" s="6">
-        <f>N22/SUM(N$21:N$22)</f>
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
     </row>
@@ -1383,11 +1424,11 @@
         <v>328</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:N27" si="10">D16</f>
+        <f t="shared" ref="M27:N27" si="11">D16</f>
         <v>238</v>
       </c>
       <c r="N27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="O27" s="6">
@@ -1412,23 +1453,23 @@
         <v>36</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:N28" si="11">D12</f>
+        <f t="shared" ref="M28:N28" si="12">D12</f>
         <v>49</v>
       </c>
       <c r="N28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" ref="O28:Q29" si="12">L28/SUM(L$27:L$29)</f>
+        <f t="shared" ref="O28:Q29" si="13">L28/SUM(L$27:L$29)</f>
         <v>8.6330935251798566E-2</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13764044943820225</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.19852941176470587</v>
       </c>
     </row>
@@ -1441,23 +1482,23 @@
         <v>53</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:N29" si="13">D15</f>
+        <f t="shared" ref="M29:N29" si="14">D15</f>
         <v>69</v>
       </c>
       <c r="N29">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="O29" s="6">
         <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="12"/>
         <v>0.12709832134292565</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.19382022471910113</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -1479,7 +1520,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -1925,13 +1966,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -2055,7 +2096,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:G3" si="0">$I2</f>
@@ -2094,7 +2135,7 @@
         <v>0.77476760164901781</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:T3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
         <v>0.76296445989275996</v>
       </c>
       <c r="L2">
@@ -2212,7 +2253,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -2607,7 +2648,7 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2726,7 +2767,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2845,7 +2886,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3121,7 +3162,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3240,7 +3281,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3359,120 +3400,358 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>0</v>
       </c>
     </row>
@@ -3492,7 +3771,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -3655,7 +3934,7 @@
         <v>2.7850697292863002E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:T9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
+        <f t="shared" ref="K2:R9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
         <v>3.6833470057424114E-2</v>
       </c>
       <c r="L2">
@@ -4558,7 +4837,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
